--- a/报考清单.xlsx
+++ b/报考清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\保研材料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A9CAB4-71AC-4BC2-93A6-A0171AC5F6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF726A30-EE08-48D5-9FFB-BA7F7647123E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="710" yWindow="8320" windowWidth="19200" windowHeight="7940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6710" yWindow="5830" windowWidth="19200" windowHeight="7940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>武汉大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,11 +111,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://sai.jlu.edu.cn/info/1065/4700.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>python、机器学习、深度学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高代、抽代、数分、实变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://yjszsgl.csu.edu.cn/zsgl2025/tmsgl/default.aspx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月19日之前完成资格审查，审查完线下交材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://math.bnu.edu.cn/xygg/ab285d2a0da84930bd73433f680434a1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://math.xmu.edu.cn/info/1026/29789.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://math.hnu.edu.cn/info/1071/6485.htm</t>
+  </si>
+  <si>
+    <t>https://math.jlu.edu.cn/info/1080/15479.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25004973    6月21号公布名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ群：943519903、656283674</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://math.tju.edu.cn/info/1072/7982.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://isbd.ruc.edu.cn/xwgg/tzggAnnouncement/57062ca23b8f42d8a737b23e99a8b99a.htm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,12 +206,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,9 +233,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,16 +519,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.25" customWidth="1"/>
     <col min="4" max="4" width="29.58203125" customWidth="1"/>
   </cols>
@@ -537,16 +604,25 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -558,6 +634,55 @@
       </c>
       <c r="C8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -571,6 +696,11 @@
     <hyperlink ref="C3" r:id="rId6" xr:uid="{E3A9F58A-B2EC-42A4-94BA-6231D1ECC3AB}"/>
     <hyperlink ref="B2" r:id="rId7" xr:uid="{AB52F439-90F5-4F64-8EF0-C33E63045833}"/>
     <hyperlink ref="B7" r:id="rId8" xr:uid="{5E3417F5-220E-44C9-9CD1-8E7BBF68F468}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{683EE68C-CDE1-4B6C-868B-4418DAF787A7}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{7846AE35-7C46-49EB-8AF9-CA4330086EBC}"/>
+    <hyperlink ref="B6" r:id="rId11" xr:uid="{07F74A39-BF34-45CF-A7B8-E5F6797E4DA7}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{9885137A-8E91-484B-ACA1-970E61853C74}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{0F40A3C0-2C45-4B6D-9756-FD45C56F96F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/报考清单.xlsx
+++ b/报考清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\保研材料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF726A30-EE08-48D5-9FFB-BA7F7647123E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A5F93A-BE66-4E77-AAEA-E415A68CAF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6710" yWindow="5830" windowWidth="19200" windowHeight="7940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="5980" windowWidth="19200" windowHeight="7940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>武汉大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入选夏令营后一周内，将纸质材料顺丰快递到报考单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数学分析、高等代数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +171,22 @@
   </si>
   <si>
     <t>http://isbd.ruc.edu.cn/xwgg/tzggAnnouncement/57062ca23b8f42d8a737b23e99a8b99a.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学分析、高等代数、初等概率论、数理统计基础、实变函数、计算机编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六月底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月21号左右，入选夏令营后一周内，将纸质材料顺丰快递到报考单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ai.bnu.edu.cn/ggjxz/tzgg/9bababa20117484b8f99bc0cb06a389f.htm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -538,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -552,10 +564,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -563,13 +575,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -577,13 +589,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -591,13 +603,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -605,10 +617,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -616,13 +628,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -633,55 +645,64 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -701,6 +722,7 @@
     <hyperlink ref="B6" r:id="rId11" xr:uid="{07F74A39-BF34-45CF-A7B8-E5F6797E4DA7}"/>
     <hyperlink ref="B12" r:id="rId12" xr:uid="{9885137A-8E91-484B-ACA1-970E61853C74}"/>
     <hyperlink ref="B13" r:id="rId13" xr:uid="{0F40A3C0-2C45-4B6D-9756-FD45C56F96F1}"/>
+    <hyperlink ref="C10" r:id="rId14" xr:uid="{A1D7CD27-85F2-4AA2-B2D2-C9A18B87F976}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/报考清单.xlsx
+++ b/报考清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\保研材料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A5F93A-BE66-4E77-AAEA-E415A68CAF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4B7E9A-ED7D-47EA-8DB5-11B04DF62520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="5980" windowWidth="19200" windowHeight="7940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>武汉大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,38 @@
   </si>
   <si>
     <t>https://ai.bnu.edu.cn/ggjxz/tzgg/9bababa20117484b8f99bc0cb06a389f.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安交通大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月30号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://math.xjtu.edu.cn/info/1086/13177.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同济大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://srias.tongji.edu.cn/1e/2d/c17827a335405/page.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科学院大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://admission.amss.ac.cn/zsxm/xly/202405/t20240521_783802.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月底</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -704,6 +736,36 @@
       </c>
       <c r="D13" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -723,6 +785,9 @@
     <hyperlink ref="B12" r:id="rId12" xr:uid="{9885137A-8E91-484B-ACA1-970E61853C74}"/>
     <hyperlink ref="B13" r:id="rId13" xr:uid="{0F40A3C0-2C45-4B6D-9756-FD45C56F96F1}"/>
     <hyperlink ref="C10" r:id="rId14" xr:uid="{A1D7CD27-85F2-4AA2-B2D2-C9A18B87F976}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{97D62EBC-6F18-4341-8F12-D00246584C13}"/>
+    <hyperlink ref="B15" r:id="rId16" xr:uid="{736D013E-ABBE-4ACA-932B-15C1003BFD93}"/>
+    <hyperlink ref="B16" r:id="rId17" xr:uid="{9B76C1C6-220A-4C7D-B298-F7E42BD07659}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/报考清单.xlsx
+++ b/报考清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\保研材料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4B7E9A-ED7D-47EA-8DB5-11B04DF62520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603A1099-C2DE-4E56-9F76-E650AF12B198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="5980" windowWidth="19200" windowHeight="7940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>武汉大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://math.bnu.edu.cn/xygg/ab285d2a0da84930bd73433f680434a1.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://math.xmu.edu.cn/info/1026/29789.htm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +215,14 @@
   </si>
   <si>
     <t>6月底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学-珠海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +251,21 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,11 +296,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -563,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -602,17 +625,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -624,23 +647,23 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -649,7 +672,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -660,23 +683,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -691,26 +714,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
+      <c r="B10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -718,53 +741,58 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -780,14 +808,14 @@
     <hyperlink ref="B2" r:id="rId7" xr:uid="{AB52F439-90F5-4F64-8EF0-C33E63045833}"/>
     <hyperlink ref="B7" r:id="rId8" xr:uid="{5E3417F5-220E-44C9-9CD1-8E7BBF68F468}"/>
     <hyperlink ref="B9" r:id="rId9" xr:uid="{683EE68C-CDE1-4B6C-868B-4418DAF787A7}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{7846AE35-7C46-49EB-8AF9-CA4330086EBC}"/>
-    <hyperlink ref="B6" r:id="rId11" xr:uid="{07F74A39-BF34-45CF-A7B8-E5F6797E4DA7}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{9885137A-8E91-484B-ACA1-970E61853C74}"/>
-    <hyperlink ref="B13" r:id="rId13" xr:uid="{0F40A3C0-2C45-4B6D-9756-FD45C56F96F1}"/>
-    <hyperlink ref="C10" r:id="rId14" xr:uid="{A1D7CD27-85F2-4AA2-B2D2-C9A18B87F976}"/>
-    <hyperlink ref="B14" r:id="rId15" xr:uid="{97D62EBC-6F18-4341-8F12-D00246584C13}"/>
-    <hyperlink ref="B15" r:id="rId16" xr:uid="{736D013E-ABBE-4ACA-932B-15C1003BFD93}"/>
-    <hyperlink ref="B16" r:id="rId17" xr:uid="{9B76C1C6-220A-4C7D-B298-F7E42BD07659}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{07F74A39-BF34-45CF-A7B8-E5F6797E4DA7}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{9885137A-8E91-484B-ACA1-970E61853C74}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{0F40A3C0-2C45-4B6D-9756-FD45C56F96F1}"/>
+    <hyperlink ref="C10" r:id="rId13" display="https://ai.bnu.edu.cn/ggjxz/tzgg/9bababa20117484b8f99bc0cb06a389f.htm   7月10" xr:uid="{A1D7CD27-85F2-4AA2-B2D2-C9A18B87F976}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{97D62EBC-6F18-4341-8F12-D00246584C13}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{736D013E-ABBE-4ACA-932B-15C1003BFD93}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{9B76C1C6-220A-4C7D-B298-F7E42BD07659}"/>
+    <hyperlink ref="B10" r:id="rId17" xr:uid="{105D01BA-16AF-4E1E-815D-F9F4C6F12E77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/报考清单.xlsx
+++ b/报考清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\保研材料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603A1099-C2DE-4E56-9F76-E650AF12B198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B14B2EC-BF3D-48F5-B21E-A88AF5B1E4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="5980" windowWidth="19200" windowHeight="7940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>武汉大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,90 +139,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://math.jlu.edu.cn/info/1080/15479.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25004973    6月21号公布名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ群：943519903、656283674</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://math.tju.edu.cn/info/1072/7982.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://isbd.ruc.edu.cn/xwgg/tzggAnnouncement/57062ca23b8f42d8a737b23e99a8b99a.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学分析、高等代数、初等概率论、数理统计基础、实变函数、计算机编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六月底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月21号左右，入选夏令营后一周内，将纸质材料顺丰快递到报考单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ai.bnu.edu.cn/ggjxz/tzgg/9bababa20117484b8f99bc0cb06a389f.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安交通大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月30号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://math.xjtu.edu.cn/info/1086/13177.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同济大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://srias.tongji.edu.cn/1e/2d/c17827a335405/page.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科学院大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://admission.amss.ac.cn/zsxm/xly/202405/t20240521_783802.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学-珠海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://math.hnu.edu.cn/info/1071/6485.htm</t>
-  </si>
-  <si>
-    <t>https://math.jlu.edu.cn/info/1080/15479.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25004973    6月21号公布名单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ群：943519903、656283674</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://math.tju.edu.cn/info/1072/7982.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国人民大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://isbd.ruc.edu.cn/xwgg/tzggAnnouncement/57062ca23b8f42d8a737b23e99a8b99a.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学分析、高等代数、初等概率论、数理统计基础、实变函数、计算机编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六月底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月21号左右，入选夏令营后一周内，将纸质材料顺丰快递到报考单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ai.bnu.edu.cn/ggjxz/tzgg/9bababa20117484b8f99bc0cb06a389f.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安交通大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月30号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://math.xjtu.edu.cn/info/1086/13177.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同济大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://srias.tongji.edu.cn/1e/2d/c17827a335405/page.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国科学院大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://admission.amss.ac.cn/zsxm/xly/202405/t20240521_783802.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山大学-珠海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7月10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://math.scu.edu.cn/info/1025/11181.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mathzh.sysu.edu.cn/zh-hans/article/2145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭高院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://math.sysu.edu.cn/article/3495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山本部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月30号前，入营要邮寄材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京理工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://math.bit.edu.cn/tzgg/d7bca34afde946b0a087f6c658dfbe13.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科学院技术大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://math.ustc.edu.cn/2024/0528/c18650a642220/page.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://math.buaa.edu.cn/info/1257/5959.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月1号左右名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月上旬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月27号前寄材料，7月上旬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +356,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,15 +391,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -586,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -600,17 +700,17 @@
     <col min="4" max="4" width="29.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -639,17 +739,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -667,28 +767,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -703,97 +803,171 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>48</v>
+      <c r="B17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -816,6 +990,13 @@
     <hyperlink ref="B15" r:id="rId15" xr:uid="{736D013E-ABBE-4ACA-932B-15C1003BFD93}"/>
     <hyperlink ref="B16" r:id="rId16" xr:uid="{9B76C1C6-220A-4C7D-B298-F7E42BD07659}"/>
     <hyperlink ref="B10" r:id="rId17" xr:uid="{105D01BA-16AF-4E1E-815D-F9F4C6F12E77}"/>
+    <hyperlink ref="B11" r:id="rId18" xr:uid="{9AEA7292-5BA7-4D13-A457-F92F5544B6AC}"/>
+    <hyperlink ref="B18" r:id="rId19" xr:uid="{A40629DE-B352-4CA4-B2B9-589E49E93BCB}"/>
+    <hyperlink ref="B17" r:id="rId20" xr:uid="{0F3FBD05-827B-4392-A108-0B06CA94A5D6}"/>
+    <hyperlink ref="B20" r:id="rId21" xr:uid="{D5ED62DC-A5B0-43A4-857A-54F4AF241925}"/>
+    <hyperlink ref="B21" r:id="rId22" xr:uid="{5505EAC4-BD3B-491F-A280-40CE45AC6F1A}"/>
+    <hyperlink ref="B23" r:id="rId23" xr:uid="{764C5C9B-6D79-4E09-8486-978DED2A6252}"/>
+    <hyperlink ref="B22" r:id="rId24" xr:uid="{F3D8E1D6-2FB4-4077-8236-EF99CFC2703D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/报考清单.xlsx
+++ b/报考清单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\保研材料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B14B2EC-BF3D-48F5-B21E-A88AF5B1E4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8102F0-7510-42C5-84BE-907E15534E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4810" yWindow="3960" windowWidth="19200" windowHeight="7940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>武汉大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>6月27号前寄材料，7月上旬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://math.seu.edu.cn/2024/0625/c15558a495410/page.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -402,7 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
@@ -686,9 +697,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -714,14 +725,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -825,17 +836,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -864,14 +875,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -916,41 +927,41 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -962,12 +973,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -997,6 +1021,7 @@
     <hyperlink ref="B21" r:id="rId22" xr:uid="{5505EAC4-BD3B-491F-A280-40CE45AC6F1A}"/>
     <hyperlink ref="B23" r:id="rId23" xr:uid="{764C5C9B-6D79-4E09-8486-978DED2A6252}"/>
     <hyperlink ref="B22" r:id="rId24" xr:uid="{F3D8E1D6-2FB4-4077-8236-EF99CFC2703D}"/>
+    <hyperlink ref="B25" r:id="rId25" xr:uid="{B0696E64-CAFC-43C6-B825-003F87012AE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
